--- a/Planilha monan.xlsx
+++ b/Planilha monan.xlsx
@@ -378,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -435,7 +435,6 @@
     <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -4061,820 +4060,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" ht="49.5" customHeight="1">
-      <c r="A55" s="17"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="8"/>
-    </row>
-    <row r="56" ht="49.5" customHeight="1">
-      <c r="A56" s="17"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="13"/>
-    </row>
-    <row r="57" ht="49.5" customHeight="1">
-      <c r="A57" s="20"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="10"/>
-    </row>
-    <row r="58" ht="49.5" customHeight="1">
-      <c r="A58" s="20"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="16"/>
-    </row>
-    <row r="59" ht="49.5" customHeight="1">
-      <c r="A59" s="20"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="16"/>
-    </row>
-    <row r="60" ht="49.5" customHeight="1">
-      <c r="A60" s="20"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="13"/>
-    </row>
-    <row r="61" ht="49.5" customHeight="1">
-      <c r="A61" s="20"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="10"/>
-    </row>
-    <row r="62" ht="49.5" customHeight="1">
-      <c r="A62" s="20"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="13"/>
-    </row>
-    <row r="63" ht="49.5" customHeight="1">
-      <c r="A63" s="20"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="10"/>
-    </row>
-    <row r="64" ht="49.5" customHeight="1">
-      <c r="A64" s="20"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="13"/>
-    </row>
-    <row r="65" ht="49.5" customHeight="1">
-      <c r="A65" s="20"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="13"/>
-    </row>
-    <row r="66" ht="49.5" customHeight="1">
-      <c r="A66" s="20"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="16"/>
-    </row>
-    <row r="67" ht="49.5" customHeight="1">
-      <c r="A67" s="20"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="10"/>
-    </row>
-    <row r="68" ht="49.5" customHeight="1">
-      <c r="A68" s="20"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-    </row>
-    <row r="69" ht="49.5" customHeight="1">
-      <c r="A69" s="20"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="10"/>
-    </row>
-    <row r="70" ht="49.5" customHeight="1">
-      <c r="A70" s="20"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="20"/>
-      <c r="S70" s="7"/>
-      <c r="T70" s="13"/>
-    </row>
-    <row r="71" ht="49.5" customHeight="1">
-      <c r="A71" s="20"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="13"/>
-    </row>
-    <row r="72" ht="49.5" customHeight="1">
-      <c r="A72" s="20"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="20"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="8"/>
-    </row>
-    <row r="73" ht="49.5" customHeight="1">
-      <c r="A73" s="20"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="13"/>
-    </row>
-    <row r="74" ht="49.5" customHeight="1">
-      <c r="A74" s="20"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="20"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="8"/>
-    </row>
-    <row r="75" ht="49.5" customHeight="1">
-      <c r="A75" s="20"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="20"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="8"/>
-    </row>
-    <row r="76" ht="49.5" customHeight="1">
-      <c r="A76" s="20"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="20"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="8"/>
-    </row>
-    <row r="77" ht="49.5" customHeight="1">
-      <c r="A77" s="20"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="20"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="13"/>
-    </row>
-    <row r="78" ht="49.5" customHeight="1">
-      <c r="A78" s="20"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="20"/>
-      <c r="S78" s="7"/>
-      <c r="T78" s="13"/>
-    </row>
-    <row r="79" ht="49.5" customHeight="1">
-      <c r="A79" s="20"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="20"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="8"/>
-    </row>
-    <row r="80" ht="49.5" customHeight="1">
-      <c r="A80" s="20"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="20"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="13"/>
-    </row>
-    <row r="81" ht="49.5" customHeight="1">
-      <c r="A81" s="20"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="20"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="13"/>
-    </row>
-    <row r="82" ht="49.5" customHeight="1">
-      <c r="A82" s="20"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="20"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="8"/>
-    </row>
-    <row r="83" ht="49.5" customHeight="1">
-      <c r="A83" s="20"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="20"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="13"/>
-    </row>
-    <row r="84" ht="49.5" customHeight="1">
-      <c r="A84" s="20"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="20"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="13"/>
-    </row>
-    <row r="85" ht="49.5" customHeight="1">
-      <c r="A85" s="20"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="20"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="8"/>
-    </row>
-    <row r="86" ht="49.5" customHeight="1">
-      <c r="A86" s="20"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="20"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="13"/>
-    </row>
-    <row r="87" ht="49.5" customHeight="1">
-      <c r="A87" s="20"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="20"/>
-      <c r="S87" s="7"/>
-      <c r="T87" s="8"/>
-    </row>
-    <row r="88" ht="49.5" customHeight="1">
-      <c r="A88" s="20"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="20"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="8"/>
-    </row>
-    <row r="89" ht="49.5" customHeight="1">
-      <c r="A89" s="20"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="20"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="13"/>
-    </row>
-    <row r="90" ht="49.5" customHeight="1">
-      <c r="A90" s="20"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="20"/>
-      <c r="S90" s="7"/>
-      <c r="T90" s="10"/>
-    </row>
-    <row r="91" ht="49.5" customHeight="1">
-      <c r="A91" s="20"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="20"/>
-      <c r="S91" s="7"/>
-      <c r="T91" s="16"/>
-    </row>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
     <row r="92" ht="14.25" customHeight="1"/>
     <row r="93" ht="14.25" customHeight="1"/>
     <row r="94" ht="14.25" customHeight="1"/>
@@ -5785,7 +5007,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="T2:T91">
+  <conditionalFormatting sqref="T2:T54">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Moderada">
       <formula>NOT(ISERROR(SEARCH(("Moderada"),(T2))))</formula>
     </cfRule>
@@ -5800,22 +5022,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T91">
+  <conditionalFormatting sqref="T2:T54">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Muito baixa">
       <formula>NOT(ISERROR(SEARCH(("Muito baixa"),(T2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T91">
+  <conditionalFormatting sqref="T2:T54">
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Baixa">
       <formula>NOT(ISERROR(SEARCH(("Baixa"),(T2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T91">
+  <conditionalFormatting sqref="T2:T54">
     <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Alta qualidade">
       <formula>NOT(ISERROR(SEARCH(("Alta qualidade"),(T2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T91">
+  <conditionalFormatting sqref="T2:T54">
     <cfRule type="containsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(T2))=0</formula>
     </cfRule>
